--- a/xlsx/穆斯林_intext.xlsx
+++ b/xlsx/穆斯林_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="333">
   <si>
     <t>穆斯林</t>
   </si>
@@ -29,7 +29,7 @@
     <t>穆罕默德</t>
   </si>
   <si>
-    <t>政策_政策_美國_穆斯林</t>
+    <t>政策_政策_美国_穆斯林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
@@ -113,19 +113,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>衣索比亞</t>
+    <t>衣索比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%8C%B2%E5%88%A5%E5%85%8B</t>
   </si>
   <si>
-    <t>烏茲別克</t>
+    <t>乌兹别克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%A7%E9%99%86</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%96%80</t>
   </si>
   <si>
-    <t>葉門</t>
+    <t>叶门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
@@ -251,19 +251,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%BD%E4%BB%96%E8%AA%9E</t>
   </si>
   <si>
-    <t>巽他語</t>
+    <t>巽他语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>古典阿拉伯語</t>
+    <t>古典阿拉伯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99</t>
   </si>
   <si>
-    <t>伊斯蘭教</t>
+    <t>伊斯兰教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E7%8E%9B%E5%B0%BC</t>
@@ -281,19 +281,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E4%B8%BB%E5%AD%B8</t>
   </si>
   <si>
-    <t>認主學</t>
+    <t>认主学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99%E7%9A%84%E5%85%88%E7%9F%A5</t>
   </si>
   <si>
-    <t>伊斯蘭教的先知</t>
+    <t>伊斯兰教的先知</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99%E8%81%96%E6%9B%B8</t>
   </si>
   <si>
-    <t>伊斯蘭教聖書</t>
+    <t>伊斯兰教圣书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E6%95%99%E4%B8%AD%E7%9A%84%E5%A4%A9%E4%BD%BF</t>
@@ -305,13 +305,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99%E5%AE%BF%E5%91%BD%E8%AB%96</t>
   </si>
   <si>
-    <t>伊斯蘭教宿命論</t>
+    <t>伊斯兰教宿命论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99%E6%9C%AB%E4%B8%96%E8%AB%96</t>
   </si>
   <si>
-    <t>伊斯蘭教末世論</t>
+    <t>伊斯兰教末世论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%8A%9F</t>
@@ -335,13 +335,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BD%8B%E6%88%92_(%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99)</t>
   </si>
   <si>
-    <t>齋戒 (伊斯蘭教)</t>
+    <t>斋戒 (伊斯兰教)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E8%AA%B2</t>
   </si>
   <si>
-    <t>天課</t>
+    <t>天课</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E8%A7%90_(%E4%BC%8A%E6%96%AF%E5%85%B0%E6%95%99)</t>
@@ -353,31 +353,28 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99%E6%B3%95</t>
   </si>
   <si>
-    <t>伊斯蘭教法</t>
+    <t>伊斯兰教法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E8%98%AD%E7%B6%93</t>
   </si>
   <si>
-    <t>古蘭經</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%A1%8C</t>
   </si>
   <si>
-    <t>聖行</t>
+    <t>圣行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%A8%93</t>
   </si>
   <si>
-    <t>聖訓</t>
+    <t>圣训</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99%E6%B3%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>伊斯蘭教法學</t>
+    <t>伊斯兰教法学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E6%95%99%E4%B9%89%E5%AD%A6</t>
@@ -395,13 +392,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%A3%94</t>
   </si>
   <si>
-    <t>聖裔</t>
+    <t>圣裔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%93%88%E5%B7%B4</t>
   </si>
   <si>
-    <t>薩哈巴</t>
+    <t>萨哈巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%BB%9F%E5%93%88%E9%87%8C%E5%8F%91</t>
@@ -413,49 +410,40 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%87%8C%E7%99%BC%E5%9C%8B</t>
   </si>
   <si>
-    <t>哈里發國</t>
+    <t>哈里发国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99%E6%B4%BE</t>
   </si>
   <si>
-    <t>伊斯蘭教派</t>
+    <t>伊斯兰教派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%9C%E5%B0%BC%E6%B4%BE</t>
   </si>
   <si>
-    <t>遜尼派</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%80%E8%91%89%E6%B4%BE</t>
   </si>
   <si>
-    <t>什葉派</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E9%9D%9E%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>蘇非主義</t>
+    <t>苏非主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%AF%E7%8D%A8%E5%8F%A4%E8%98%AD%E7%B6%93</t>
   </si>
   <si>
-    <t>唯獨古蘭經</t>
+    <t>唯独古兰经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%B5%AB%E9%82%81%E5%BA%95%E4%BA%9E</t>
   </si>
   <si>
-    <t>阿赫邁底亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>伊斯蘭文化</t>
+    <t>伊斯兰文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E6%96%AF%E6%9E%97%E4%B8%96%E7%95%8C</t>
@@ -467,25 +455,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E7%A0%94%E7%A9%B6</t>
   </si>
   <si>
-    <t>伊斯蘭研究</t>
+    <t>伊斯兰研究</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99%E8%88%87%E5%8B%95%E7%89%A9</t>
   </si>
   <si>
-    <t>伊斯蘭教與動物</t>
+    <t>伊斯兰教与动物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E8%97%9D%E8%A1%93</t>
   </si>
   <si>
-    <t>伊斯蘭藝術</t>
+    <t>伊斯兰艺术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%9B%86</t>
   </si>
   <si>
-    <t>伊斯蘭曆</t>
+    <t>伊斯兰历</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E4%BC%8A%E6%96%AF%E5%85%B0%E6%95%99</t>
@@ -497,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>伊斯蘭女性主義</t>
+    <t>伊斯兰女性主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E7%9C%9F%E5%AF%BA</t>
@@ -509,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>伊斯蘭哲學</t>
+    <t>伊斯兰哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E6%95%99%E4%B8%8E%E6%94%BF%E6%B2%BB</t>
@@ -521,19 +509,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A9%A6%E5%A5%B3%E8%88%87%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99</t>
   </si>
   <si>
-    <t>婦女與伊斯蘭教</t>
+    <t>妇女与伊斯兰教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/LGBT%E8%88%87%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99</t>
   </si>
   <si>
-    <t>LGBT與伊斯蘭教</t>
+    <t>LGBT与伊斯兰教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99%E7%9A%84%E6%89%B9%E8%A9%95</t>
   </si>
   <si>
-    <t>對伊斯蘭教的批評</t>
+    <t>对伊斯兰教的批评</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E4%B8%BB%E4%B9%89</t>
@@ -545,13 +533,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%81%90%E6%87%BC%E7%97%87</t>
   </si>
   <si>
-    <t>伊斯蘭恐懼症</t>
+    <t>伊斯兰恐惧症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99%E8%A9%9E%E5%BD%99%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>伊斯蘭教詞彙列表</t>
+    <t>伊斯兰教词汇列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E4%BC%8A%E6%96%AF%E5%85%B0%E6%95%99</t>
@@ -569,9 +557,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E6%95%99</t>
   </si>
   <si>
-    <t>伊斯兰教</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%B8%89%E5%A4%A7%E5%AE%97%E6%95%99</t>
   </si>
   <si>
@@ -581,7 +566,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E4%BC%AF%E6%8B%89%E7%BD%95%E8%AB%B8%E6%95%99</t>
   </si>
   <si>
-    <t>亞伯拉罕諸教</t>
+    <t>亚伯拉罕诸教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E7%A5%9E%E6%95%99</t>
@@ -671,9 +656,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>中國大陸</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
   </si>
   <si>
@@ -683,31 +665,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B</t>
   </si>
   <si>
-    <t>韓國</t>
+    <t>韩国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%9F%93</t>
   </si>
   <si>
-    <t>北韓</t>
+    <t>北韩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%9C%8B</t>
   </si>
   <si>
-    <t>蒙古國</t>
+    <t>蒙古国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83</t>
@@ -719,7 +701,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%B7%B4%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>阿爾巴尼亞</t>
+    <t>阿尔巴尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
@@ -755,7 +737,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%A8%E5%A4%8F%E5%9B%9E%E6%97%8F%E8%87%AA%E6%B2%BB%E5%B7%9E</t>
   </si>
   <si>
-    <t>臨夏回族自治州</t>
+    <t>临夏回族自治州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
@@ -791,7 +773,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E9%BB%83%E9%87%91%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>伊斯蘭黃金時代</t>
+    <t>伊斯兰黄金时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E8%BE%BE_(%E4%BD%9C%E5%AE%B6)</t>
@@ -809,7 +791,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99%E5%AE%97%E6%95%99%E9%A0%98%E8%A2%96</t>
   </si>
   <si>
-    <t>伊斯蘭教宗教領袖</t>
+    <t>伊斯兰教宗教领袖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E6%96%AF%E6%9E%97%E7%9A%84%E5%BE%81%E6%9C%8D</t>
@@ -851,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E6%9B%BC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>奧斯曼帝國</t>
+    <t>奥斯曼帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E6%B0%91%E6%97%8F</t>
@@ -863,25 +845,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>伊斯蘭學校</t>
+    <t>伊斯兰学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80%E4%BC%8A%E6%96%AF%E8%98%AD%E4%B8%96%E7%95%8C%E7%9A%84%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>中世紀伊斯蘭世界的科學</t>
+    <t>中世纪伊斯兰世界的科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>伊斯蘭銀行</t>
+    <t>伊斯兰银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E5%82%B5%E5%88%B8</t>
   </si>
   <si>
-    <t>伊斯蘭債券</t>
+    <t>伊斯兰债券</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%B7%B4</t>
@@ -899,61 +881,61 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E6%B7%A8</t>
   </si>
   <si>
-    <t>小淨</t>
+    <t>小净</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E5%A9%9A%E5%A7%BB%E6%B3%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>伊斯蘭婚姻法學</t>
+    <t>伊斯兰婚姻法学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E4%BA%A5%E7%88%BE</t>
   </si>
   <si>
-    <t>麥亥爾</t>
+    <t>麦亥尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BD%8A%E7%B4%8D_(%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99)</t>
   </si>
   <si>
-    <t>齊納 (伊斯蘭教)</t>
+    <t>齐纳 (伊斯兰教)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E5%88%91%E4%BA%8B%E6%B3%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>伊斯蘭刑事法學</t>
+    <t>伊斯兰刑事法学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E9%81%94%E5%8D%9C</t>
   </si>
   <si>
-    <t>艾達卜</t>
+    <t>艾达卜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E7%B9%BC%E6%89%BF%E6%B3%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>伊斯蘭繼承法學</t>
+    <t>伊斯兰继承法学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E8%8C%B2%E4%BA%9E</t>
   </si>
   <si>
-    <t>吉茲亞</t>
+    <t>吉兹亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%BC%8F%E8%8A%B1%E7%B4%8B</t>
   </si>
   <si>
-    <t>阿拉伯式花紋</t>
+    <t>阿拉伯式花纹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>伊斯蘭建築</t>
+    <t>伊斯兰建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E4%B9%A6%E6%B3%95</t>
@@ -965,31 +947,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8F%A4%E4%BC%8A%E6%96%AF%E8%98%AD%E5%A4%A9%E6%96%87%E5%AD%B8</t>
   </si>
   <si>
-    <t>中古伊斯蘭天文學</t>
+    <t>中古伊斯兰天文学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E4%B8%96%E7%95%8C%E7%9A%84%E7%99%BC%E6%98%8E</t>
   </si>
   <si>
-    <t>伊斯蘭世界的發明</t>
+    <t>伊斯兰世界的发明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99%E8%88%87%E5%9F%BA%E7%9D%A3%E6%95%99</t>
   </si>
   <si>
-    <t>伊斯蘭教與基督教</t>
+    <t>伊斯兰教与基督教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%9B%E6%95%99_(%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99)</t>
   </si>
   <si>
-    <t>叛教 (伊斯蘭教)</t>
+    <t>叛教 (伊斯兰教)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99%E7%9A%84%E6%89%B9%E5%88%A4</t>
   </si>
   <si>
-    <t>對伊斯蘭教的批判</t>
+    <t>对伊斯兰教的批判</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B9%E4%BA%8E%E7%A9%86%E7%BD%95%E9%BB%98%E5%BE%B7%E7%9A%84%E6%89%B9%E8%AF%84</t>
@@ -1007,19 +989,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>伊斯蘭恐怖主義</t>
+    <t>伊斯兰恐怖主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E7%89%B9%E5%B8%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>庫特布主義</t>
+    <t>库特布主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1031,7 +1013,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -3026,7 +3008,7 @@
         <v>113</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="G57" t="n">
         <v>7</v>
@@ -3052,10 +3034,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -3081,10 +3063,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -3116,7 +3098,7 @@
         <v>112</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="s">
         <v>4</v>
@@ -3139,13 +3121,13 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
       </c>
-      <c r="F61" t="s">
-        <v>120</v>
-      </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="s">
         <v>4</v>
@@ -3168,13 +3150,13 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
       </c>
-      <c r="F62" t="s">
-        <v>122</v>
-      </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="s">
         <v>4</v>
@@ -3197,10 +3179,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -3226,10 +3208,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -3255,10 +3237,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -3284,10 +3266,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -3313,10 +3295,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -3342,10 +3324,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>7</v>
@@ -3371,10 +3353,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -3400,10 +3382,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
@@ -3429,10 +3411,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -3458,10 +3440,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -3487,10 +3469,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>52</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -3545,10 +3527,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F75" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G75" t="n">
         <v>3</v>
@@ -3574,10 +3556,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -3603,10 +3585,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3632,10 +3614,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -3661,10 +3643,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G79" t="n">
         <v>3</v>
@@ -3690,10 +3672,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -3719,10 +3701,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G81" t="n">
         <v>5</v>
@@ -3748,10 +3730,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -3777,10 +3759,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G83" t="n">
         <v>3</v>
@@ -3806,10 +3788,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G84" t="n">
         <v>3</v>
@@ -3835,10 +3817,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -3864,10 +3846,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -3893,10 +3875,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3922,10 +3904,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3951,10 +3933,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -3980,10 +3962,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -4009,10 +3991,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G91" t="n">
         <v>3</v>
@@ -4038,10 +4020,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G92" t="n">
         <v>4</v>
@@ -4067,10 +4049,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4096,10 +4078,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>82</v>
       </c>
       <c r="G94" t="n">
         <v>6</v>
@@ -4125,10 +4107,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4154,10 +4136,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4183,10 +4165,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4212,10 +4194,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4241,10 +4223,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4270,10 +4252,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4299,10 +4281,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G101" t="n">
         <v>4</v>
@@ -4328,10 +4310,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4357,10 +4339,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4386,10 +4368,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4415,10 +4397,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4444,10 +4426,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4473,10 +4455,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4502,10 +4484,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -4531,10 +4513,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4589,10 +4571,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4618,10 +4600,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>38</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4647,10 +4629,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4676,10 +4658,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4705,10 +4687,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4734,10 +4716,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4763,10 +4745,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -4792,10 +4774,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4821,10 +4803,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4850,10 +4832,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4879,10 +4861,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4908,10 +4890,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4937,10 +4919,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -4966,10 +4948,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4995,10 +4977,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5024,10 +5006,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5053,10 +5035,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5082,10 +5064,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5111,10 +5093,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5140,10 +5122,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5169,10 +5151,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5198,10 +5180,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5227,10 +5209,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5256,10 +5238,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5430,10 +5412,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F140" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5459,10 +5441,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F141" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5488,10 +5470,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F142" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5517,10 +5499,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F143" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5546,10 +5528,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F144" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -5575,10 +5557,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F145" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5604,10 +5586,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F146" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5633,10 +5615,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F147" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5662,10 +5644,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F148" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5720,10 +5702,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F150" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5749,10 +5731,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F151" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5778,10 +5760,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F152" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5807,10 +5789,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F153" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G153" t="n">
         <v>3</v>
@@ -5836,10 +5818,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F154" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5865,10 +5847,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>118</v>
+      </c>
+      <c r="F155" t="s">
         <v>119</v>
-      </c>
-      <c r="F155" t="s">
-        <v>120</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -5894,10 +5876,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F156" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5923,10 +5905,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F157" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5952,10 +5934,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F158" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -5981,10 +5963,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F159" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6010,10 +5992,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F160" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6039,10 +6021,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F161" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G161" t="n">
         <v>3</v>
@@ -6068,10 +6050,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F162" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6097,10 +6079,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F163" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6126,10 +6108,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F164" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6155,10 +6137,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F165" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6184,10 +6166,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F166" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6242,10 +6224,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F168" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6271,10 +6253,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F169" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6300,10 +6282,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>120</v>
+      </c>
+      <c r="F170" t="s">
         <v>121</v>
-      </c>
-      <c r="F170" t="s">
-        <v>122</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -6329,10 +6311,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F171" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6358,10 +6340,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F172" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6387,10 +6369,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F173" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6416,10 +6398,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F174" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6445,10 +6427,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F175" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6474,10 +6456,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F176" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6532,10 +6514,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F178" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6561,10 +6543,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F179" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6590,10 +6572,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F180" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6619,10 +6601,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F181" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6648,10 +6630,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F182" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6677,10 +6659,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F183" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6706,10 +6688,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F184" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6735,10 +6717,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F185" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6764,10 +6746,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F186" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G186" t="n">
         <v>3</v>
@@ -6793,10 +6775,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F187" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -6822,10 +6804,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F188" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>

--- a/xlsx/穆斯林_intext.xlsx
+++ b/xlsx/穆斯林_intext.xlsx
@@ -29,7 +29,7 @@
     <t>穆罕默德</t>
   </si>
   <si>
-    <t>政策_政策_美國_穆斯林</t>
+    <t>体育运动_体育运动_国际象棋_穆斯林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
